--- a/homework2/mlrose-master/output/example_experiment/mimic__example_experiment__run_stats_df.xlsx
+++ b/homework2/mlrose-master/output/example_experiment/mimic__example_experiment__run_stats_df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoyal\github\ml_7641\homework2\mlrose-master\output\example_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DEC05D6C-AF6C-479F-A3D7-907A1483DE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A190224-B4CF-485E-8083-DAAEE146A04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="mimic__example_experiment__run_" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="mimic__example_experiment__run_" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mimic__example_experiment__run_!$A$1:$I$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mimic__example_experiment__run_!$A$1:$I$67</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>Iteration</t>
   </si>
@@ -98,16 +99,25 @@
     <t>Row Labels</t>
   </si>
   <si>
-    <t>Average of Fitness</t>
+    <t>Average of Time</t>
   </si>
   <si>
-    <t>Average of Time</t>
+    <t>Max of Fitness</t>
+  </si>
+  <si>
+    <t>IterationFitnessTimeStateuse_fast_mimicPopulation SizeKeep Percentmax_iters0021.00.009392[0, 7, 5, 0, 6, 3, 2, 3]False1000.2510001100027.03.268217[4.0, 6.0, 3.0, 0.0, 7.0, 1.0, 5.0, 2.0]False1000.2510002021.00.004507[0, 7, 5, 0, 6, 3, 2, 3]False1000.5010003100026.03.305179[5.0, 0.0, 5.0, 3.0, 0.0, 7.0, 4.0, 1.0]False1000.5010004021.00.004703[0, 7, 5, 0, 6, 3, 2, 3]False1000.7510005100027.03.361636[0.0, 6.0, 2.0, 5.0, 1.0, 4.0, 7.0, 3.0]False1000.7510006021.00.009001[0, 7, 5, 0, 6, 3, 2, 3]False1500.2510007100027.03.557315[4.0, 0.0, 5.0, 0.0, 6.0, 3.0, 7.0, 2.0]False1500.2510008021.00.007429[0, 7, 5, 0, 6, 3, 2, 3]False1500.5010009100027.03.627505[3.0, 6.0, 1.0, 5.0, 2.0, 0.0, 7.0, 4.0]False1500.50100010021.00.009360[0, 7, 5, 0, 6, 3, 2, 3]False1500.75100011100026.03.462742[5.0, 0.0, 5.0, 3.0, 0.0, 7.0, 4.0, 1.0]False1500.75100012021.00.009931[0, 7, 5, 0, 6, 3, 2, 3]False2000.25100013100027.03.780325[5.0, 1.0, 6.0, 4.0, 2.0, 7.0, 3.0, 3.0]False2000.25100014021.00.009026[0, 7, 5, 0, 6, 3, 2, 3]False2000.50100015100026.04.868488[1.0, 6.0, 0.0, 5.0, 7.0, 2.0, 0.0, 3.0]False2000.50100016021.00.007903[0, 7, 5, 0, 6, 3, 2, 3]False2000.75100017100027.04.236003[4.0, 2.0, 7.0, 5.0, 7.0, 0.0, 6.0, 3.0]False2000.75100018021.00.014709[0, 7, 5, 0, 6, 3, 2, 3]False3000.25100019100028.04.551976[2.0, 4.0, 6.0, 0.0, 3.0, 1.0, 7.0, 5.0]False3000.25100020021.00.014507[0, 7, 5, 0, 6, 3, 2, 3]False3000.50100021100027.04.699957[3.0, 6.0, 2.0, 7.0, 5.0, 1.0, 0.0, 4.0]False3000.50100022021.00.020409[0, 7, 5, 0, 6, 3, 2, 3]False3000.75100023100028.06.490274[5.0, 3.0, 6.0, 0.0, 7.0, 1.0, 4.0, 2.0]False3000.751000</t>
+  </si>
+  <si>
+    <t>IterationFitnessTimeStateuse_fast_mimicPopulation SizeKeep Percentmax_itersFalse1000.7510005100027.03.361636[0.0, 6.0, 2.0, 5.0, 1.0, 4.0, 7.0, 3.0]False1000.7510006021.00.009001[0, 7, 5, 0, 6, 3, 2, 3]False1500.2510007100027.03.557315[4.0, 0.0, 5.0, 0.0, 6.0, 3.0, 7.0, 2.0]False1500.2510008021.00.007429[0, 7, 5, 0, 6, 3, 2, 3]False1500.5010009100027.03.627505[3.0, 6.0, 1.0, 5.0, 2.0, 0.0, 7.0, 4.0]False1500.50100010021.00.009360[0, 7, 5, 0, 6, 3, 2, 3]False1500.75100011100026.03.462742[5.0, 0.0, 5.0, 3.0, 0.0, 7.0, 4.0, 1.0]False1500.75100012021.00.009931[0, 7, 5, 0, 6, 3, 2, 3]False2000.25100013100027.03.780325[5.0, 1.0, 6.0, 4.0, 2.0, 7.0, 3.0, 3.0]False2000.25100014021.00.009026[0, 7, 5, 0, 6, 3, 2, 3]False2000.50100015100026.04.868488[1.0, 6.0, 0.0, 5.0, 7.0, 2.0, 0.0, 3.0]False2000.50100016021.00.007903[0, 7, 5, 0, 6, 3, 2, 3]False2000.75100017100027.04.236003[4.0, 2.0, 7.0, 5.0, 7.0, 0.0, 6.0, 3.0]False2000.75100018021.00.014709[0, 7, 5, 0, 6, 3, 2, 3]False3000.25100019100028.04.551976[2.0, 4.0, 6.0, 0.0, 3.0, 1.0, 7.0, 5.0]False3000.25100020021.00.014507[0, 7, 5, 0, 6, 3, 2, 3]False3000.50100021100027.04.699957[3.0, 6.0, 2.0, 7.0, 5.0, 1.0, 0.0, 4.0]False3000.50100022021.00.020409[0, 7, 5, 0, 6, 3, 2, 3]False3000.75100023100028.06.490274[5.0, 3.0, 6.0, 0.0, 7.0, 1.0, 4.0, 2.0]False3000.751000</t>
+  </si>
+  <si>
+    <t>IterationFitnessTimeStateuse_fast_mimicPopulation SizeKeep Percentmax_iters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,7 +906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Fitness</c:v>
+                  <c:v>Max of Fitness</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -956,22 +966,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.818181818181817</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.545454545454547</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.454545454545453</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.363636363636363</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.363636363636363</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.454545454545453</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,8 +1808,145 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>141945</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B066B02-D35F-479B-B7A5-8A4044C7C9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="184150"/>
+          <a:ext cx="7438095" cy="657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>122895</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C981AB-EDBE-43D5-B0BD-E3FDA09C0313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="3683000"/>
+          <a:ext cx="7438095" cy="657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113376</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5F3760-411F-482D-A9B0-C0CD9654D097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="2844800"/>
+          <a:ext cx="7390476" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Xiaoyan Liu" refreshedDate="44114.503109953701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Xiaoyan Liu" refreshedDate="44114.503109953701" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:I67" sheet="mimic__example_experiment__run_"/>
   </cacheSource>
@@ -2510,7 +2657,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2581,7 +2728,7 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Average of Time" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Fitness" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Max of Fitness" fld="1" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="3" format="0" series="1">
@@ -2911,18 +3058,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -2933,10 +3080,10 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2947,7 +3094,7 @@
         <v>4.3889226515177153</v>
       </c>
       <c r="C4" s="2">
-        <v>25.272727272727273</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2958,7 +3105,7 @@
         <v>4.0386746818191783</v>
       </c>
       <c r="C5" s="2">
-        <v>24.818181818181817</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2969,7 +3116,7 @@
         <v>4.1579628909133506</v>
       </c>
       <c r="C6" s="2">
-        <v>25.545454545454547</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2980,7 +3127,7 @@
         <v>4.9701303818206162</v>
       </c>
       <c r="C7" s="2">
-        <v>25.454545454545453</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2991,7 +3138,7 @@
         <v>6.3472173515165577</v>
       </c>
       <c r="C8" s="2">
-        <v>26.393939393939394</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3002,7 +3149,7 @@
         <v>5.8621700272752468</v>
       </c>
       <c r="C9" s="2">
-        <v>26.363636363636363</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3013,7 +3160,7 @@
         <v>7.4480715272756077</v>
       </c>
       <c r="C10" s="2">
-        <v>26.363636363636363</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3024,7 +3171,7 @@
         <v>5.7314104999988151</v>
       </c>
       <c r="C11" s="2">
-        <v>26.454545454545453</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3035,7 +3182,7 @@
         <v>5.3680700015171388</v>
       </c>
       <c r="C12" s="2">
-        <v>25.833333333333332</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3045,10 +3192,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D2DFA2-6DB9-4E1D-B994-7F7A7A731CD4}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4998,7 +5184,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I67"/>
+  <autoFilter ref="A1:I67" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>